--- a/docs/support-file/template/4_hcm_clb_bind_rs_tcp_udp_template.xlsx
+++ b/docs/support-file/template/4_hcm_clb_bind_rs_tcp_udp_template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\tencent\hcm\docs\support-file\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaosongwu/Downloads/2025-06-30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3B115-AB8B-4334-8686-A7F6D2A3E930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B0E53-F7CD-E544-A966-B636FB0DA859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41120" yWindow="1420" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="绑定RS-TCP-UDP" sheetId="1" r:id="rId1"/>
+    <sheet name="示例说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="50">
   <si>
     <t>vendor(云厂商)</t>
   </si>
@@ -81,12 +82,6 @@
     <t>权重(0-100)</t>
   </si>
   <si>
-    <t>用户备注</t>
-  </si>
-  <si>
-    <t>导出备注</t>
-  </si>
-  <si>
     <t>49.166.15.161</t>
   </si>
   <si>
@@ -172,9 +167,6 @@
   </si>
   <si>
     <t>lb-xxxxx15</t>
-  </si>
-  <si>
-    <t>target_type(后端类型):CVM(服务器),ENI(跨域IP，弹性网卡IP)</t>
   </si>
   <si>
     <r>
@@ -221,12 +213,20 @@
 13.所有字段必须与示例格式相同，且参数符合校验格式要求</t>
     </r>
   </si>
+  <si>
+    <t>用户备注(可选)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出备注(可选)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +268,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,24 +283,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFEAFAF1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAFAF1"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -380,6 +379,224 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -389,132 +606,53 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF319B62"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF002060"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF002060"/>
       </left>
       <right/>
       <top/>
@@ -523,148 +661,213 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF002060"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF319B62"/>
+        <color rgb="FF002060"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -945,594 +1148,1165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>8888</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14">
+        <v>8888</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14">
+        <v>8889</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8882</v>
+      </c>
+      <c r="H6" s="14">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>8890</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8883</v>
+      </c>
+      <c r="H7" s="14">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14">
+        <v>8891</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8884</v>
+      </c>
+      <c r="H8" s="14">
+        <v>50</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="14">
+        <v>100</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20001</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8885</v>
+      </c>
+      <c r="H10" s="14">
+        <v>50</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20002</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>20001</v>
+      </c>
+      <c r="H11" s="14">
+        <v>50</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20003</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20002</v>
+      </c>
+      <c r="H12" s="14">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20004</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5">
+        <v>20003</v>
+      </c>
+      <c r="H13" s="14">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>20005</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5">
+        <v>20004</v>
+      </c>
+      <c r="H14" s="14">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8891</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5">
+        <v>20005</v>
+      </c>
+      <c r="H15" s="14">
+        <v>50</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14">
+        <v>8892</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5">
+        <v>8891</v>
+      </c>
+      <c r="H16" s="14">
+        <v>50</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14">
+        <v>8893</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8892</v>
+      </c>
+      <c r="H17" s="14">
+        <v>50</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="22">
+        <v>8894</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="18">
+        <v>8893</v>
+      </c>
+      <c r="H18" s="22">
+        <v>50</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300EF115-23AB-D248-B88F-AB88AD449CC6}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A24" sqref="A24:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="B4" s="44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>22</v>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="14">
         <v>8888</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="17">
-        <v>8000</v>
-      </c>
-      <c r="H4" s="17">
-        <v>50</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>22</v>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="14">
         <v>8888</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="14">
+        <v>50</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14">
-        <v>8000</v>
-      </c>
-      <c r="H5" s="14">
-        <v>50</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="14">
         <v>8889</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8882</v>
+      </c>
+      <c r="H6" s="14">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="14">
-        <v>8882</v>
-      </c>
-      <c r="H6" s="14">
-        <v>50</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="14">
         <v>8890</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6">
         <v>8883</v>
       </c>
       <c r="H7" s="14">
         <v>50</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>22</v>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="14">
         <v>8891</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5">
         <v>8884</v>
       </c>
       <c r="H8" s="14">
         <v>50</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H9" s="14">
         <v>100</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>22</v>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="14">
         <v>20001</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5">
         <v>8885</v>
       </c>
       <c r="H10" s="14">
         <v>50</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>22</v>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="14">
         <v>20002</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
         <v>20001</v>
       </c>
       <c r="H11" s="14">
         <v>50</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="14">
         <v>20003</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5">
         <v>20002</v>
       </c>
       <c r="H12" s="14">
         <v>50</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>22</v>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="14">
         <v>20004</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5">
         <v>20003</v>
       </c>
       <c r="H13" s="14">
         <v>50</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>22</v>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="14">
         <v>20005</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5">
         <v>20004</v>
       </c>
       <c r="H14" s="14">
         <v>50</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>22</v>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="14">
         <v>8891</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5">
         <v>20005</v>
       </c>
       <c r="H15" s="14">
         <v>50</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>22</v>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="14">
         <v>8892</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5">
         <v>8891</v>
       </c>
       <c r="H16" s="14">
         <v>50</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>22</v>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="14">
         <v>8893</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5">
         <v>8892</v>
       </c>
       <c r="H17" s="14">
         <v>50</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1">
+      <c r="A18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>22</v>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="22">
         <v>8894</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="18">
         <v>8893</v>
       </c>
-      <c r="H18" s="25">
-        <v>50</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="263.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="H18" s="22">
+        <v>50</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="263.25" customHeight="1">
+      <c r="A24" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
